--- a/app/config/tables/codigos/forms/codigos/codigos.xlsx
+++ b/app/config/tables/codigos/forms/codigos/codigos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emil\Code\ODKX\celsos\app\config\tables\codigos\forms\codigos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4705CF47-B478-486F-9348-7ED074547C66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC4DB12-3B14-4126-B0CE-AE5FD3455153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
   <si>
     <t>type</t>
   </si>
@@ -218,6 +218,15 @@
   </si>
   <si>
     <t>usado</t>
+  </si>
+  <si>
+    <t>select_one</t>
+  </si>
+  <si>
+    <t>regiao</t>
+  </si>
+  <si>
+    <t>Centro de Saude</t>
   </si>
 </sst>
 </file>
@@ -776,7 +785,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -843,13 +852,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -948,6 +957,34 @@
       </c>
       <c r="Y1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1323,8 +1360,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1351,7 +1388,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -1359,7 +1396,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
